--- a/data/QC/质控组仪表盘10-3.xlsx
+++ b/data/QC/质控组仪表盘10-3.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>组别</t>
   </si>
@@ -86,9 +86,6 @@
     <t>48h通过率标线</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>总体</t>
   </si>
   <si>
@@ -137,16 +134,18 @@
     <t>下单错误数</t>
   </si>
   <si>
-    <t>张悦</t>
+    <t>10-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
   <si>
     <t>冷雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>屈昂</t>
-  </si>
-  <si>
-    <t>10-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,102 +526,102 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>518.19000000000005</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -630,113 +629,57 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>518.19000000000005</v>
+        <v>26.3</v>
       </c>
       <c r="H3">
-        <v>4.79</v>
+        <v>10.47</v>
       </c>
       <c r="I3">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>26.3</v>
-      </c>
-      <c r="H4">
-        <v>10.47</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
         <v>0</v>
       </c>
     </row>
@@ -751,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,13 +773,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -860,7 +803,7 @@
         <v>3.42</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="L2">
         <v>23.02</v>
